--- a/public/file_product/SampleProduct.xlsx
+++ b/public/file_product/SampleProduct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prost\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vastech\vastech_5\public\file_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA616C59-3F68-414E-B7B1-503C0E45F465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85D42D-10CF-4178-906C-FBB5D8133DDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{45C6FCAC-74E1-4568-B9F4-B366D329D63C}"/>
+    <workbookView xWindow="2748" yWindow="2628" windowWidth="16200" windowHeight="9300" xr2:uid="{45C6FCAC-74E1-4568-B9F4-B366D329D63C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>DEFAULT INVENTORY ACCOUNT kalau tidak ada harp di isi dengan nomor 7 untuk default.</t>
+  </si>
+  <si>
+    <t>Harap mengisi data dimulai dari baris 14.</t>
   </si>
 </sst>
 </file>
@@ -552,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BAFD19-138A-405E-A838-97DC6EE917D4}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -638,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -665,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -692,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -719,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -746,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -773,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -800,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -827,7 +830,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -850,8 +853,12 @@
     </row>
     <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -871,136 +878,106 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>65000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>69</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>150000</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>65</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1012,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>25000</v>
+        <v>150000</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
@@ -1032,22 +1009,22 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
         <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1065,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>66000</v>
+        <v>25000</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
@@ -1085,22 +1062,22 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
         <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1118,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>75000</v>
+        <v>66000</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
@@ -1138,28 +1115,28 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1171,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>10000</v>
+        <v>75000</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -1189,7 +1166,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>69</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>65</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/file_product/SampleProduct.xlsx
+++ b/public/file_product/SampleProduct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vastech\vastech_5\public\file_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85D42D-10CF-4178-906C-FBB5D8133DDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B9AB8F-F76A-49A9-8DD4-E4D0399B8BF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2748" yWindow="2628" windowWidth="16200" windowHeight="9300" xr2:uid="{45C6FCAC-74E1-4568-B9F4-B366D329D63C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45C6FCAC-74E1-4568-B9F4-B366D329D63C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,10 +1018,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>27</v>
@@ -1071,10 +1071,10 @@
         <v>24</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>29</v>
@@ -1177,10 +1177,10 @@
         <v>26</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>30</v>
